--- a/wiki/plan/Daily Tasksheet.xlsx
+++ b/wiki/plan/Daily Tasksheet.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="74">
   <si>
     <t>No.</t>
   </si>
@@ -169,6 +169,135 @@
   </si>
   <si>
     <t>DONE</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Usecase</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Search</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>Post request</t>
+  </si>
+  <si>
+    <t>Edit request</t>
+  </si>
+  <si>
+    <t>Cancel request</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Search request</t>
+  </si>
+  <si>
+    <t>Tracking</t>
+  </si>
+  <si>
+    <t>View request detail</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrators </t>
+  </si>
+  <si>
+    <t>Define fee value/formular</t>
+  </si>
+  <si>
+    <t>Edit fee value/formular</t>
+  </si>
+  <si>
+    <t>Create new staff account</t>
+  </si>
+  <si>
+    <t>Edit account info</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>Staffs</t>
+  </si>
+  <si>
+    <t>Approve request</t>
+  </si>
+  <si>
+    <t>Reject request</t>
+  </si>
+  <si>
+    <t>Assisgn package</t>
+  </si>
+  <si>
+    <t>Update package status</t>
+  </si>
+  <si>
+    <t>Manage time</t>
+  </si>
+  <si>
+    <t>Search package info</t>
+  </si>
+  <si>
+    <t>Statistics</t>
+  </si>
+  <si>
+    <t>Add trip</t>
+  </si>
+  <si>
+    <t>Edit trip</t>
+  </si>
+  <si>
+    <t>Delete trip</t>
+  </si>
+  <si>
+    <t>Add station</t>
+  </si>
+  <si>
+    <t>Edit station</t>
+  </si>
+  <si>
+    <t>Delete station</t>
+  </si>
+  <si>
+    <t>Add route</t>
+  </si>
+  <si>
+    <t>Edit route</t>
+  </si>
+  <si>
+    <t>Delete route</t>
+  </si>
+  <si>
+    <t>Add coach</t>
+  </si>
+  <si>
+    <t>Edit coach</t>
+  </si>
+  <si>
+    <t>Delete coach</t>
+  </si>
+  <si>
+    <t>Delete comment</t>
+  </si>
+  <si>
+    <t>Clear rating</t>
   </si>
 </sst>
 </file>
@@ -244,7 +373,7 @@
       <charset val="163"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,6 +395,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,7 +452,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -346,12 +487,35 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -654,10 +818,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <pane ySplit="12" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -709,7 +874,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A2" s="12">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
@@ -728,7 +893,7 @@
       <c r="K2" s="7"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A3" s="13"/>
+      <c r="A3" s="14"/>
       <c r="B3" s="9" t="s">
         <v>11</v>
       </c>
@@ -745,7 +910,7 @@
       <c r="K3" s="7"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="9" t="s">
         <v>12</v>
       </c>
@@ -762,7 +927,7 @@
       <c r="K4" s="7"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="9" t="s">
         <v>13</v>
       </c>
@@ -781,7 +946,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A6" s="13"/>
+      <c r="A6" s="14"/>
       <c r="B6" s="9" t="s">
         <v>6</v>
       </c>
@@ -796,7 +961,7 @@
       <c r="K6" s="7"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A7" s="13"/>
+      <c r="A7" s="14"/>
       <c r="B7" s="9" t="s">
         <v>7</v>
       </c>
@@ -811,7 +976,7 @@
       <c r="K7" s="7"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A8" s="13">
+      <c r="A8" s="14">
         <v>2</v>
       </c>
       <c r="B8" s="9" t="s">
@@ -828,7 +993,7 @@
       <c r="K8" s="7"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A9" s="13"/>
+      <c r="A9" s="14"/>
       <c r="B9" s="9" t="s">
         <v>4</v>
       </c>
@@ -843,7 +1008,7 @@
       <c r="K9" s="7"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A10" s="13"/>
+      <c r="A10" s="14"/>
       <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
@@ -858,7 +1023,7 @@
       <c r="K10" s="7"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A11" s="13"/>
+      <c r="A11" s="14"/>
       <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
@@ -873,7 +1038,7 @@
       <c r="K11" s="7"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A12" s="13"/>
+      <c r="A12" s="14"/>
       <c r="B12" s="9" t="s">
         <v>8</v>
       </c>
@@ -898,11 +1063,11 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="7"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="21"/>
     </row>
     <row r="14" spans="1:11" ht="15.75">
       <c r="A14" s="2">
@@ -917,11 +1082,11 @@
         <v>2</v>
       </c>
       <c r="F14" s="7"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="7" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -938,11 +1103,11 @@
       <c r="F15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="7"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="21"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
       <c r="A16" s="2">
@@ -957,11 +1122,11 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="7"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="21"/>
     </row>
     <row r="17" spans="1:11" ht="15.75">
       <c r="A17" s="2">
@@ -974,11 +1139,11 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="7"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
+      <c r="K17" s="21"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
       <c r="A18" s="2">
@@ -999,13 +1164,13 @@
       <c r="F18" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10" t="s">
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1020,11 +1185,11 @@
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="7"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="21"/>
     </row>
     <row r="20" spans="1:11" ht="15.75">
       <c r="A20" s="2">
@@ -1039,11 +1204,11 @@
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="7" t="s">
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="21" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1051,151 +1216,806 @@
       <c r="A21" s="2">
         <v>9</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="7"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="21"/>
     </row>
     <row r="22" spans="1:11" ht="15.75">
       <c r="A22" s="2">
         <v>10</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="5" t="s">
+        <v>32</v>
+      </c>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="7"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="21"/>
     </row>
     <row r="23" spans="1:11" ht="15.75">
       <c r="A23" s="2">
         <v>11</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="15" t="s">
+        <v>33</v>
+      </c>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="7"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="21"/>
     </row>
     <row r="24" spans="1:11" ht="15.75">
       <c r="A24" s="2">
         <v>12</v>
       </c>
-      <c r="B24" s="11"/>
+      <c r="B24" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="7"/>
+      <c r="F24" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="1:11" ht="15.75">
       <c r="A25" s="2">
         <v>13</v>
       </c>
-      <c r="B25" s="11"/>
+      <c r="B25" s="16" t="s">
+        <v>35</v>
+      </c>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="7"/>
+      <c r="F25" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
+      <c r="K25" s="21"/>
     </row>
     <row r="26" spans="1:11" ht="15.75">
       <c r="A26" s="2">
         <v>14</v>
       </c>
-      <c r="B26" s="11"/>
+      <c r="B26" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="7"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
+      <c r="K26" s="21"/>
     </row>
     <row r="27" spans="1:11" ht="15.75">
       <c r="A27" s="2">
         <v>15</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="16" t="s">
+        <v>37</v>
+      </c>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="7"/>
+      <c r="F27" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
+      <c r="K27" s="21"/>
     </row>
     <row r="28" spans="1:11" ht="15.75">
       <c r="A28" s="2">
         <v>16</v>
       </c>
-      <c r="B28" s="11"/>
+      <c r="B28" s="16" t="s">
+        <v>38</v>
+      </c>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="7"/>
+      <c r="F28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
+      <c r="K28" s="21"/>
     </row>
     <row r="29" spans="1:11" ht="15.75">
       <c r="A29" s="2">
         <v>17</v>
       </c>
-      <c r="B29" s="11"/>
+      <c r="B29" s="16" t="s">
+        <v>39</v>
+      </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="7"/>
+      <c r="F29" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="21"/>
     </row>
     <row r="30" spans="1:11" ht="15.75">
       <c r="A30" s="2">
         <v>18</v>
       </c>
-      <c r="B30" s="11"/>
+      <c r="B30" s="16" t="s">
+        <v>40</v>
+      </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="7"/>
+      <c r="F30" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75">
+      <c r="A31" s="12">
+        <v>19</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="20"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="22"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75">
+      <c r="A32" s="12">
+        <v>20</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="22"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75">
+      <c r="A33" s="12">
+        <v>21</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="22"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75">
+      <c r="A34" s="12">
+        <v>22</v>
+      </c>
+      <c r="B34" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="22"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75">
+      <c r="A35" s="12">
+        <v>23</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="22"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75">
+      <c r="A36" s="12">
+        <v>24</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="22"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75">
+      <c r="A37" s="12">
+        <v>25</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="22"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75">
+      <c r="A38" s="12">
+        <v>26</v>
+      </c>
+      <c r="B38" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="22"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75">
+      <c r="A39" s="12">
+        <v>27</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="22"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75">
+      <c r="A40" s="12">
+        <v>28</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="22"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75">
+      <c r="A41" s="12">
+        <v>29</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="22"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75">
+      <c r="A42" s="12">
+        <v>30</v>
+      </c>
+      <c r="B42" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="22"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75">
+      <c r="A43" s="12">
+        <v>31</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43" s="7"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="22"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75">
+      <c r="A44" s="12">
+        <v>32</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F44" s="7"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="22"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75">
+      <c r="A45" s="12">
+        <v>33</v>
+      </c>
+      <c r="B45" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45" s="7"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="22"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75">
+      <c r="A46" s="12">
+        <v>34</v>
+      </c>
+      <c r="B46" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="7"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="22"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75">
+      <c r="A47" s="12">
+        <v>35</v>
+      </c>
+      <c r="B47" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="22"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75">
+      <c r="A48" s="12">
+        <v>36</v>
+      </c>
+      <c r="B48" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="7"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="22"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75">
+      <c r="A49" s="12">
+        <v>37</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="7"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="22"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75">
+      <c r="A50" s="12">
+        <v>39</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="7"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="22"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75">
+      <c r="A51" s="12">
+        <v>40</v>
+      </c>
+      <c r="B51" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="7"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="22"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75">
+      <c r="A52" s="12">
+        <v>41</v>
+      </c>
+      <c r="B52" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="7"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="22"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75">
+      <c r="A53" s="12">
+        <v>43</v>
+      </c>
+      <c r="B53" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="20"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="22"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75">
+      <c r="A54" s="12">
+        <v>44</v>
+      </c>
+      <c r="B54" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="20"/>
+      <c r="H54" s="20"/>
+      <c r="I54" s="20"/>
+      <c r="J54" s="20"/>
+      <c r="K54" s="22"/>
+    </row>
+    <row r="55" spans="1:11" ht="15.75">
+      <c r="A55" s="12">
+        <v>45</v>
+      </c>
+      <c r="B55" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="20"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="22"/>
+    </row>
+    <row r="56" spans="1:11" ht="15.75">
+      <c r="A56" s="12">
+        <v>47</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="20"/>
+      <c r="H56" s="20"/>
+      <c r="I56" s="20"/>
+      <c r="J56" s="20"/>
+      <c r="K56" s="22"/>
+    </row>
+    <row r="57" spans="1:11" ht="15.75">
+      <c r="A57" s="12">
+        <v>48</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="20"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="22"/>
+    </row>
+    <row r="58" spans="1:11" ht="15.75">
+      <c r="A58" s="12">
+        <v>49</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="20"/>
+      <c r="H58" s="20"/>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
+      <c r="K58" s="22"/>
+    </row>
+    <row r="59" spans="1:11" ht="15.75">
+      <c r="A59" s="12">
+        <v>51</v>
+      </c>
+      <c r="B59" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="20"/>
+      <c r="I59" s="20"/>
+      <c r="J59" s="20"/>
+      <c r="K59" s="22"/>
+    </row>
+    <row r="60" spans="1:11" ht="15.75">
+      <c r="A60" s="12">
+        <v>52</v>
+      </c>
+      <c r="B60" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="20"/>
+      <c r="J60" s="20"/>
+      <c r="K60" s="22"/>
+    </row>
+    <row r="61" spans="1:11" ht="15.75">
+      <c r="A61" s="12">
+        <v>53</v>
+      </c>
+      <c r="B61" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="20"/>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
+      <c r="K61" s="22"/>
+    </row>
+    <row r="62" spans="1:11" ht="15.75">
+      <c r="A62" s="12">
+        <v>54</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="20"/>
+      <c r="H62" s="20"/>
+      <c r="I62" s="20"/>
+      <c r="J62" s="20"/>
+      <c r="K62" s="22"/>
+    </row>
+    <row r="63" spans="1:11" ht="15.75">
+      <c r="A63" s="12">
+        <v>55</v>
+      </c>
+      <c r="B63" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="20"/>
+      <c r="J63" s="20"/>
+      <c r="K63" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1203,7 +2023,7 @@
     <mergeCell ref="A8:A12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:F30 K2:K30">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K30 C2:F63">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/wiki/plan/Daily Tasksheet.xlsx
+++ b/wiki/plan/Daily Tasksheet.xlsx
@@ -326,7 +326,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-1010000]d/m/yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-1010000]d/m/yy;@"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -503,7 +503,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -527,8 +527,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="9"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -538,11 +538,8 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="7" fillId="3" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -553,28 +550,25 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -587,7 +581,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -604,7 +598,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -615,7 +609,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -922,7 +921,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -975,1889 +974,1889 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A2" s="15">
+      <c r="A2" s="43">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="17"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="16"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="17"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="16"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A4" s="20"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="17"/>
+      <c r="C4" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="17" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A6" s="20"/>
-      <c r="B6" s="21" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="17"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="16"/>
     </row>
     <row r="7" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A7" s="20"/>
-      <c r="B7" s="21" t="s">
+      <c r="A7" s="44"/>
+      <c r="B7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="17"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A8" s="20">
-        <v>2</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="A8" s="44">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="17"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="17"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="16"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="44"/>
+      <c r="B10" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="17"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="16"/>
     </row>
     <row r="11" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21" t="s">
+      <c r="A11" s="44"/>
+      <c r="B11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="17"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="12" spans="1:11" ht="15.75" hidden="1" customHeight="1">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="17"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="16"/>
     </row>
     <row r="13" spans="1:11" ht="15.75">
-      <c r="A13" s="24">
+      <c r="A13" s="22">
         <v>1</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="25"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="27"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="25"/>
     </row>
     <row r="14" spans="1:11" ht="15.75">
-      <c r="A14" s="24">
+      <c r="A14" s="22">
         <v>2</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="27" t="s">
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="16"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75">
-      <c r="A15" s="24">
+      <c r="A15" s="22">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="27"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="25"/>
     </row>
     <row r="16" spans="1:11" ht="15.75">
-      <c r="A16" s="24">
+      <c r="A16" s="22">
         <v>4</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="25"/>
-      <c r="K16" s="27"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="25"/>
     </row>
     <row r="17" spans="1:11" ht="15.75">
-      <c r="A17" s="24">
+      <c r="A17" s="22">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C17" s="17"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="17"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="25"/>
-      <c r="K17" s="27"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="1:11" ht="15.75">
-      <c r="A18" s="24">
+      <c r="A18" s="22">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F18" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="25" t="s">
+      <c r="C18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="K18" s="27" t="s">
+      <c r="K18" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="15.75">
-      <c r="A19" s="24">
+      <c r="A19" s="22">
         <v>7</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="25"/>
-      <c r="K19" s="27"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="1:11" ht="15.75">
-      <c r="A20" s="24">
+      <c r="A20" s="22">
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="27" t="s">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="25" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75">
-      <c r="A21" s="24">
+      <c r="A21" s="22">
         <v>9</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="17"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="26">
-        <v>41685</v>
-      </c>
-      <c r="J21" s="25"/>
-      <c r="K21" s="27"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24">
+        <v>41685</v>
+      </c>
+      <c r="J21" s="23"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="1:11" ht="15.75">
-      <c r="A22" s="24">
+      <c r="A22" s="22">
         <v>10</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="25"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="25"/>
-      <c r="K22" s="27"/>
-    </row>
-    <row r="23" spans="1:11" ht="15.75">
-      <c r="A23" s="24">
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="25"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" hidden="1">
+      <c r="A23" s="22">
         <v>11</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="29">
-        <v>2</v>
-      </c>
-      <c r="H23" s="30"/>
-      <c r="I23" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J23" s="45"/>
-      <c r="K23" s="27"/>
-    </row>
-    <row r="24" spans="1:11" ht="15.75">
-      <c r="A24" s="24">
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="27">
+        <v>2</v>
+      </c>
+      <c r="H23" s="28"/>
+      <c r="I23" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J23" s="28"/>
+      <c r="K23" s="25"/>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" hidden="1">
+      <c r="A24" s="22">
         <v>12</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J24" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K24" s="27"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75">
-      <c r="A25" s="24">
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="31"/>
+      <c r="I24" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J24" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K24" s="25"/>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" hidden="1">
+      <c r="A25" s="22">
         <v>13</v>
       </c>
       <c r="B25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C25" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J25" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" ht="15.75">
-      <c r="A26" s="24">
+      <c r="C25" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="31"/>
+      <c r="I25" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J25" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K25" s="25"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" hidden="1">
+      <c r="A26" s="22">
         <v>14</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="29">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="27">
         <v>10</v>
       </c>
-      <c r="H26" s="30"/>
-      <c r="I26" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J26" s="30"/>
-      <c r="K26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" ht="15.75">
-      <c r="A27" s="24">
+      <c r="H26" s="28"/>
+      <c r="I26" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J26" s="28"/>
+      <c r="K26" s="25"/>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" hidden="1">
+      <c r="A27" s="22">
         <v>15</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="32"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J27" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" ht="15.75">
-      <c r="A28" s="24">
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="31"/>
+      <c r="I27" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J27" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K27" s="25"/>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" hidden="1">
+      <c r="A28" s="22">
         <v>16</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="17"/>
-      <c r="D28" s="17"/>
-      <c r="E28" s="17"/>
-      <c r="F28" s="17"/>
-      <c r="G28" s="32"/>
-      <c r="H28" s="33"/>
-      <c r="I28" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J28" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K28" s="27"/>
-    </row>
-    <row r="29" spans="1:11" ht="15.75">
-      <c r="A29" s="24">
+      <c r="C28" s="16"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J28" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K28" s="25"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" hidden="1">
+      <c r="A29" s="22">
         <v>17</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="17"/>
-      <c r="D29" s="17"/>
-      <c r="E29" s="17"/>
-      <c r="F29" s="17"/>
-      <c r="G29" s="32"/>
-      <c r="H29" s="33"/>
-      <c r="I29" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J29" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K29" s="27"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75">
-      <c r="A30" s="24">
+      <c r="C29" s="16"/>
+      <c r="D29" s="16"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J29" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K29" s="25"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" hidden="1">
+      <c r="A30" s="22">
         <v>18</v>
       </c>
       <c r="B30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="17"/>
-      <c r="D30" s="17"/>
-      <c r="E30" s="17"/>
-      <c r="F30" s="17"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J30" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K30" s="27"/>
-    </row>
-    <row r="31" spans="1:11" ht="15.75">
-      <c r="A31" s="24">
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J30" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K30" s="25"/>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" hidden="1">
+      <c r="A31" s="22">
         <v>19</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="32"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J31" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K31" s="27"/>
-    </row>
-    <row r="32" spans="1:11" ht="15.75">
-      <c r="A32" s="24">
+      <c r="C31" s="16"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="31"/>
+      <c r="I31" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J31" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31" s="25"/>
+    </row>
+    <row r="32" spans="1:11" ht="15.75" hidden="1">
+      <c r="A32" s="22">
         <v>20</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="32"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J32" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K32" s="27"/>
-    </row>
-    <row r="33" spans="1:11" ht="15.75">
-      <c r="A33" s="24">
+      <c r="C32" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J32" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K32" s="25"/>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" hidden="1">
+      <c r="A33" s="22">
         <v>21</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="32"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J33" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K33" s="27"/>
-    </row>
-    <row r="34" spans="1:11" ht="15.75">
-      <c r="A34" s="24">
+      <c r="C33" s="16"/>
+      <c r="D33" s="16"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J33" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K33" s="25"/>
+    </row>
+    <row r="34" spans="1:11" ht="15.75" hidden="1">
+      <c r="A34" s="22">
         <v>22</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="17"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="17"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="33"/>
-      <c r="I34" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J34" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K34" s="27"/>
-    </row>
-    <row r="35" spans="1:11" ht="15.75">
-      <c r="A35" s="24">
+      <c r="C34" s="16"/>
+      <c r="D34" s="16"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J34" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K34" s="25"/>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" hidden="1">
+      <c r="A35" s="22">
         <v>23</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C35" s="17"/>
-      <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="33"/>
-      <c r="I35" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J35" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K35" s="27"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75">
-      <c r="A36" s="24">
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J35" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K35" s="25"/>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" hidden="1">
+      <c r="A36" s="22">
         <v>24</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="17"/>
-      <c r="G36" s="32"/>
-      <c r="H36" s="33"/>
-      <c r="I36" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J36" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K36" s="27"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75">
-      <c r="A37" s="24">
+      <c r="C36" s="16"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J36" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K36" s="25"/>
+    </row>
+    <row r="37" spans="1:11" ht="15.75" hidden="1">
+      <c r="A37" s="22">
         <v>25</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="28"/>
-      <c r="E37" s="28"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="29">
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="27">
         <v>7</v>
       </c>
-      <c r="H37" s="30"/>
-      <c r="I37" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J37" s="30"/>
-      <c r="K37" s="27"/>
-    </row>
-    <row r="38" spans="1:11" ht="15.75">
-      <c r="A38" s="24">
+      <c r="H37" s="28"/>
+      <c r="I37" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J37" s="28"/>
+      <c r="K37" s="25"/>
+    </row>
+    <row r="38" spans="1:11" ht="15.75" hidden="1">
+      <c r="A38" s="22">
         <v>26</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="17"/>
-      <c r="G38" s="32"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J38" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K38" s="27"/>
-    </row>
-    <row r="39" spans="1:11" ht="15.75">
-      <c r="A39" s="24">
+      <c r="C38" s="16"/>
+      <c r="D38" s="16"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J38" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K38" s="25"/>
+    </row>
+    <row r="39" spans="1:11" ht="15.75" hidden="1">
+      <c r="A39" s="22">
         <v>27</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="32"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J39" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K39" s="27"/>
-    </row>
-    <row r="40" spans="1:11" ht="15.75">
-      <c r="A40" s="24">
+      <c r="C39" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J39" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K39" s="25"/>
+    </row>
+    <row r="40" spans="1:11" ht="15.75" hidden="1">
+      <c r="A40" s="22">
         <v>28</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="32"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J40" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K40" s="27"/>
-    </row>
-    <row r="41" spans="1:11" ht="15.75">
-      <c r="A41" s="24">
+      <c r="C40" s="16"/>
+      <c r="D40" s="16"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J40" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K40" s="25"/>
+    </row>
+    <row r="41" spans="1:11" ht="15.75" hidden="1">
+      <c r="A41" s="22">
         <v>29</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="C41" s="17"/>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
-      <c r="G41" s="32"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J41" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K41" s="27"/>
-    </row>
-    <row r="42" spans="1:11" ht="15.75">
-      <c r="A42" s="24">
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J41" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K41" s="25"/>
+    </row>
+    <row r="42" spans="1:11" ht="15.75" hidden="1">
+      <c r="A42" s="22">
         <v>30</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="17"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
-      <c r="I42" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K42" s="27"/>
-    </row>
-    <row r="43" spans="1:11" ht="15.75">
-      <c r="A43" s="24">
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="32"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J42" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="K42" s="25"/>
+    </row>
+    <row r="43" spans="1:11" ht="15.75" hidden="1">
+      <c r="A43" s="22">
         <v>31</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="17"/>
-      <c r="D43" s="17"/>
-      <c r="E43" s="38"/>
-      <c r="F43" s="17"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="33"/>
-      <c r="I43" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="K43" s="27"/>
-    </row>
-    <row r="44" spans="1:11" ht="15.75">
-      <c r="A44" s="24">
+      <c r="C43" s="16"/>
+      <c r="D43" s="16"/>
+      <c r="E43" s="36"/>
+      <c r="F43" s="16"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J43" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="K43" s="25"/>
+    </row>
+    <row r="44" spans="1:11" ht="15.75" hidden="1">
+      <c r="A44" s="22">
         <v>32</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="17"/>
-      <c r="G44" s="32"/>
-      <c r="H44" s="33"/>
-      <c r="I44" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J44" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K44" s="27"/>
-    </row>
-    <row r="45" spans="1:11" ht="15.75">
-      <c r="A45" s="44">
+      <c r="C44" s="16"/>
+      <c r="D44" s="16"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J44" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K44" s="25"/>
+    </row>
+    <row r="45" spans="1:11" ht="15.75" hidden="1">
+      <c r="A45" s="42">
         <v>33</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
-      <c r="G45" s="29">
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="27">
         <v>21</v>
       </c>
-      <c r="H45" s="30"/>
-      <c r="I45" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J45" s="30"/>
-      <c r="K45" s="27"/>
-    </row>
-    <row r="46" spans="1:11" ht="15.75">
-      <c r="A46" s="24">
+      <c r="H45" s="28"/>
+      <c r="I45" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J45" s="28"/>
+      <c r="K45" s="25"/>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" hidden="1">
+      <c r="A46" s="22">
         <v>34</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="C46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F46" s="17"/>
-      <c r="G46" s="32"/>
-      <c r="H46" s="33"/>
-      <c r="I46" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J46" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K46" s="27"/>
-    </row>
-    <row r="47" spans="1:11" ht="15.75">
-      <c r="A47" s="24">
+      <c r="C46" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D46" s="16"/>
+      <c r="E46" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F46" s="16"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J46" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K46" s="25"/>
+    </row>
+    <row r="47" spans="1:11" ht="15.75" hidden="1">
+      <c r="A47" s="22">
         <v>35</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C47" s="17"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F47" s="17"/>
-      <c r="G47" s="32"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J47" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K47" s="27"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75">
-      <c r="A48" s="24">
+      <c r="C47" s="16"/>
+      <c r="D47" s="16"/>
+      <c r="E47" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F47" s="16"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J47" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K47" s="25"/>
+    </row>
+    <row r="48" spans="1:11" ht="15.75" hidden="1">
+      <c r="A48" s="22">
         <v>36</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C48" s="17"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F48" s="17"/>
-      <c r="G48" s="32"/>
-      <c r="H48" s="33"/>
-      <c r="I48" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J48" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K48" s="27"/>
-    </row>
-    <row r="49" spans="1:11" ht="15.75">
-      <c r="A49" s="24">
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="16"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J48" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K48" s="25"/>
+    </row>
+    <row r="49" spans="1:11" ht="15.75" hidden="1">
+      <c r="A49" s="22">
         <v>37</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F49" s="17"/>
-      <c r="G49" s="32"/>
-      <c r="H49" s="33"/>
-      <c r="I49" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J49" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K49" s="27"/>
-    </row>
-    <row r="50" spans="1:11" ht="15.75">
-      <c r="A50" s="24">
+      <c r="C49" s="16"/>
+      <c r="D49" s="16"/>
+      <c r="E49" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F49" s="16"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="31"/>
+      <c r="I49" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J49" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K49" s="25"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" hidden="1">
+      <c r="A50" s="22">
         <v>39</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F50" s="17"/>
-      <c r="G50" s="32"/>
-      <c r="H50" s="33"/>
-      <c r="I50" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J50" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K50" s="27"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75">
-      <c r="A51" s="24">
+      <c r="C50" s="16"/>
+      <c r="D50" s="16"/>
+      <c r="E50" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50" s="16"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="31"/>
+      <c r="I50" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J50" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K50" s="25"/>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" hidden="1">
+      <c r="A51" s="22">
         <v>40</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="33"/>
-      <c r="I51" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J51" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K51" s="27"/>
-    </row>
-    <row r="52" spans="1:11" ht="15.75">
-      <c r="A52" s="24">
+      <c r="C51" s="16"/>
+      <c r="D51" s="16"/>
+      <c r="E51" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F51" s="16"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="31"/>
+      <c r="I51" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J51" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K51" s="25"/>
+    </row>
+    <row r="52" spans="1:11" ht="15.75" hidden="1">
+      <c r="A52" s="22">
         <v>41</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C52" s="17"/>
-      <c r="D52" s="17"/>
-      <c r="E52" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="F52" s="17"/>
-      <c r="G52" s="32"/>
-      <c r="H52" s="33"/>
-      <c r="I52" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J52" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K52" s="27"/>
-    </row>
-    <row r="53" spans="1:11" ht="15.75">
-      <c r="A53" s="24">
+      <c r="C52" s="16"/>
+      <c r="D52" s="16"/>
+      <c r="E52" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="31"/>
+      <c r="I52" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J52" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K52" s="25"/>
+    </row>
+    <row r="53" spans="1:11" ht="15.75" hidden="1">
+      <c r="A53" s="22">
         <v>43</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C53" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="17"/>
-      <c r="F53" s="17"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="33"/>
-      <c r="I53" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J53" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K53" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="15.75">
-      <c r="A54" s="24">
+      <c r="C53" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D53" s="16"/>
+      <c r="E53" s="16"/>
+      <c r="F53" s="16"/>
+      <c r="G53" s="30"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J53" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K53" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" hidden="1">
+      <c r="A54" s="22">
         <v>44</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C54" s="17"/>
-      <c r="D54" s="17"/>
-      <c r="E54" s="17"/>
-      <c r="F54" s="17"/>
-      <c r="G54" s="32"/>
-      <c r="H54" s="33"/>
-      <c r="I54" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J54" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K54" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="15.75">
-      <c r="A55" s="24">
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="16"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="31"/>
+      <c r="I54" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J54" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K54" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="15.75" hidden="1">
+      <c r="A55" s="22">
         <v>45</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C55" s="17"/>
-      <c r="D55" s="17"/>
-      <c r="E55" s="17"/>
-      <c r="F55" s="17"/>
-      <c r="G55" s="32"/>
-      <c r="H55" s="33"/>
-      <c r="I55" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J55" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K55" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="15.75">
-      <c r="A56" s="24">
+      <c r="C55" s="16"/>
+      <c r="D55" s="16"/>
+      <c r="E55" s="16"/>
+      <c r="F55" s="16"/>
+      <c r="G55" s="30"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J55" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K55" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="15.75" hidden="1">
+      <c r="A56" s="22">
         <v>47</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C56" s="17"/>
-      <c r="D56" s="17"/>
-      <c r="E56" s="17"/>
-      <c r="F56" s="17"/>
-      <c r="G56" s="32"/>
-      <c r="H56" s="33"/>
-      <c r="I56" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J56" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K56" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="15.75">
-      <c r="A57" s="24">
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="16"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="31"/>
+      <c r="I56" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J56" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K56" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="15.75" hidden="1">
+      <c r="A57" s="22">
         <v>48</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="17"/>
-      <c r="F57" s="17"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="33"/>
-      <c r="I57" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J57" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K57" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="15.75">
-      <c r="A58" s="24">
+      <c r="C57" s="16"/>
+      <c r="D57" s="16"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="16"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="31"/>
+      <c r="I57" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J57" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K57" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="15.75" hidden="1">
+      <c r="A58" s="22">
         <v>49</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="32"/>
-      <c r="H58" s="33"/>
-      <c r="I58" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J58" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K58" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="15.75">
-      <c r="A59" s="24">
+      <c r="C58" s="16"/>
+      <c r="D58" s="16"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="16"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="31"/>
+      <c r="I58" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J58" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K58" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="15.75" hidden="1">
+      <c r="A59" s="22">
         <v>51</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J59" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K59" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="15.75">
-      <c r="A60" s="24">
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J59" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K59" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="15.75" hidden="1">
+      <c r="A60" s="22">
         <v>52</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="C60" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D60" s="17"/>
-      <c r="E60" s="17"/>
-      <c r="F60" s="17"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="33"/>
-      <c r="I60" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J60" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K60" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="15.75">
-      <c r="A61" s="24">
+      <c r="C60" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="31"/>
+      <c r="I60" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J60" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K60" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="15.75" hidden="1">
+      <c r="A61" s="22">
         <v>53</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="C61" s="17"/>
-      <c r="D61" s="17"/>
-      <c r="E61" s="17"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="32"/>
-      <c r="H61" s="33"/>
-      <c r="I61" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J61" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K61" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" ht="15.75">
-      <c r="A62" s="24">
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="16"/>
+      <c r="G61" s="30"/>
+      <c r="H61" s="31"/>
+      <c r="I61" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J61" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K61" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" ht="15.75" hidden="1">
+      <c r="A62" s="22">
         <v>54</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C62" s="17"/>
-      <c r="D62" s="17"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="17"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J62" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K62" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="15.75">
-      <c r="A63" s="24">
+      <c r="C62" s="16"/>
+      <c r="D62" s="16"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="31"/>
+      <c r="I62" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J62" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K62" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="15.75" hidden="1">
+      <c r="A63" s="22">
         <v>55</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="17"/>
-      <c r="D63" s="17"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="17"/>
-      <c r="G63" s="32"/>
-      <c r="H63" s="33"/>
-      <c r="I63" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J63" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K63" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="15.75">
-      <c r="A64" s="24">
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="31"/>
+      <c r="I63" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J63" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K63" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="15.75" hidden="1">
+      <c r="A64" s="22">
         <v>56</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="17"/>
-      <c r="D64" s="17"/>
-      <c r="E64" s="39"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="32"/>
-      <c r="H64" s="33"/>
-      <c r="I64" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J64" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K64" s="27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="15.75">
-      <c r="A65" s="24">
+      <c r="C64" s="16"/>
+      <c r="D64" s="16"/>
+      <c r="E64" s="37"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="31"/>
+      <c r="I64" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J64" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K64" s="25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="15.75" hidden="1">
+      <c r="A65" s="22">
         <v>57</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C65" s="17"/>
-      <c r="D65" s="17"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="17"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="33"/>
-      <c r="I65" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J65" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K65" s="27"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75">
-      <c r="A66" s="24">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="37"/>
+      <c r="F65" s="16"/>
+      <c r="G65" s="30"/>
+      <c r="H65" s="31"/>
+      <c r="I65" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J65" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K65" s="25"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" hidden="1">
+      <c r="A66" s="22">
         <v>58</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C66" s="17"/>
-      <c r="D66" s="17"/>
-      <c r="E66" s="39"/>
-      <c r="F66" s="17"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="33"/>
-      <c r="I66" s="31">
-        <v>41685</v>
-      </c>
-      <c r="J66" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="K66" s="27"/>
+      <c r="C66" s="16"/>
+      <c r="D66" s="16"/>
+      <c r="E66" s="37"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="30"/>
+      <c r="H66" s="31"/>
+      <c r="I66" s="29">
+        <v>41685</v>
+      </c>
+      <c r="J66" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="K66" s="25"/>
     </row>
     <row r="67" spans="1:11" ht="15.75">
-      <c r="A67" s="44">
+      <c r="A67" s="42">
         <v>59</v>
       </c>
-      <c r="B67" s="43" t="s">
+      <c r="B67" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="C67" s="28"/>
-      <c r="D67" s="28"/>
-      <c r="E67" s="30"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="30"/>
-      <c r="K67" s="27"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="28"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="28"/>
+      <c r="H67" s="28"/>
+      <c r="I67" s="29"/>
+      <c r="J67" s="28"/>
+      <c r="K67" s="25"/>
     </row>
     <row r="68" spans="1:11" ht="15.75">
-      <c r="A68" s="24">
+      <c r="A68" s="22">
         <v>60</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C68" s="17"/>
-      <c r="D68" s="17"/>
-      <c r="E68" s="17"/>
-      <c r="F68" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-      <c r="I68" s="40"/>
-      <c r="J68" s="38"/>
-      <c r="K68" s="27"/>
+      <c r="C68" s="16"/>
+      <c r="D68" s="16"/>
+      <c r="E68" s="16"/>
+      <c r="F68" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="G68" s="36"/>
+      <c r="H68" s="36"/>
+      <c r="I68" s="38"/>
+      <c r="J68" s="36"/>
+      <c r="K68" s="25"/>
     </row>
     <row r="69" spans="1:11" ht="15.75">
-      <c r="A69" s="24">
+      <c r="A69" s="22">
         <v>61</v>
       </c>
-      <c r="B69" s="41" t="s">
+      <c r="B69" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="C69" s="38"/>
-      <c r="D69" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="E69" s="42"/>
-      <c r="F69" s="17"/>
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-      <c r="I69" s="40"/>
-      <c r="J69" s="38"/>
-      <c r="K69" s="27"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E69" s="40"/>
+      <c r="F69" s="16"/>
+      <c r="G69" s="36"/>
+      <c r="H69" s="36"/>
+      <c r="I69" s="38"/>
+      <c r="J69" s="36"/>
+      <c r="K69" s="25"/>
     </row>
     <row r="70" spans="1:11" ht="15.75">
-      <c r="A70" s="24">
+      <c r="A70" s="22">
         <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C70" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="D70" s="17"/>
-      <c r="E70" s="42"/>
-      <c r="F70" s="17"/>
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-      <c r="I70" s="40"/>
-      <c r="J70" s="38"/>
-      <c r="K70" s="27"/>
+      <c r="C70" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="16"/>
+      <c r="E70" s="40"/>
+      <c r="F70" s="16"/>
+      <c r="G70" s="36"/>
+      <c r="H70" s="36"/>
+      <c r="I70" s="38"/>
+      <c r="J70" s="36"/>
+      <c r="K70" s="25"/>
     </row>
     <row r="71" spans="1:11" ht="15.75">
-      <c r="A71" s="24">
+      <c r="A71" s="22">
         <v>63</v>
       </c>
-      <c r="B71" s="41" t="s">
+      <c r="B71" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="C71" s="42"/>
-      <c r="D71" s="17"/>
-      <c r="E71" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="F71" s="17"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="40"/>
-      <c r="J71" s="38"/>
-      <c r="K71" s="27"/>
+      <c r="C71" s="40"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F71" s="16"/>
+      <c r="G71" s="36"/>
+      <c r="H71" s="36"/>
+      <c r="I71" s="38"/>
+      <c r="J71" s="36"/>
+      <c r="K71" s="25"/>
     </row>
     <row r="72" spans="1:11" ht="15.75">
-      <c r="A72" s="24">
+      <c r="A72" s="22">
         <v>64</v>
       </c>
-      <c r="B72" s="38"/>
-      <c r="C72" s="42"/>
-      <c r="D72" s="17"/>
-      <c r="E72" s="42"/>
-      <c r="F72" s="17"/>
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-      <c r="I72" s="40"/>
-      <c r="J72" s="38"/>
-      <c r="K72" s="27"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="40"/>
+      <c r="D72" s="16"/>
+      <c r="E72" s="40"/>
+      <c r="F72" s="16"/>
+      <c r="G72" s="36"/>
+      <c r="H72" s="36"/>
+      <c r="I72" s="38"/>
+      <c r="J72" s="36"/>
+      <c r="K72" s="25"/>
     </row>
     <row r="73" spans="1:11" ht="15.75">
-      <c r="A73" s="24">
+      <c r="A73" s="22">
         <v>65</v>
       </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="42"/>
-      <c r="D73" s="17"/>
-      <c r="E73" s="42"/>
-      <c r="F73" s="17"/>
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-      <c r="I73" s="40"/>
-      <c r="J73" s="38"/>
-      <c r="K73" s="27"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="16"/>
+      <c r="E73" s="40"/>
+      <c r="F73" s="16"/>
+      <c r="G73" s="36"/>
+      <c r="H73" s="36"/>
+      <c r="I73" s="38"/>
+      <c r="J73" s="36"/>
+      <c r="K73" s="25"/>
     </row>
     <row r="74" spans="1:11" ht="15.75">
-      <c r="A74" s="24">
+      <c r="A74" s="22">
         <v>66</v>
       </c>
-      <c r="B74" s="38"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="42"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-      <c r="I74" s="40"/>
-      <c r="J74" s="38"/>
-      <c r="K74" s="27"/>
+      <c r="B74" s="36"/>
+      <c r="C74" s="40"/>
+      <c r="D74" s="16"/>
+      <c r="E74" s="40"/>
+      <c r="F74" s="16"/>
+      <c r="G74" s="36"/>
+      <c r="H74" s="36"/>
+      <c r="I74" s="38"/>
+      <c r="J74" s="36"/>
+      <c r="K74" s="25"/>
     </row>
     <row r="75" spans="1:11" ht="15.75">
-      <c r="A75" s="24">
+      <c r="A75" s="22">
         <v>67</v>
       </c>
-      <c r="B75" s="38"/>
-      <c r="C75" s="42"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="42"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-      <c r="I75" s="40"/>
-      <c r="J75" s="38"/>
-      <c r="K75" s="27"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="40"/>
+      <c r="D75" s="16"/>
+      <c r="E75" s="40"/>
+      <c r="F75" s="16"/>
+      <c r="G75" s="36"/>
+      <c r="H75" s="36"/>
+      <c r="I75" s="38"/>
+      <c r="J75" s="36"/>
+      <c r="K75" s="25"/>
     </row>
     <row r="76" spans="1:11" ht="15.75">
-      <c r="A76" s="24">
+      <c r="A76" s="22">
         <v>68</v>
       </c>
-      <c r="B76" s="38"/>
-      <c r="C76" s="42"/>
-      <c r="D76" s="17"/>
-      <c r="E76" s="42"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-      <c r="I76" s="40"/>
-      <c r="J76" s="38"/>
-      <c r="K76" s="27"/>
+      <c r="B76" s="36"/>
+      <c r="C76" s="40"/>
+      <c r="D76" s="16"/>
+      <c r="E76" s="40"/>
+      <c r="F76" s="16"/>
+      <c r="G76" s="36"/>
+      <c r="H76" s="36"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="36"/>
+      <c r="K76" s="25"/>
     </row>
     <row r="77" spans="1:11" ht="15.75">
-      <c r="A77" s="24">
+      <c r="A77" s="22">
         <v>69</v>
       </c>
-      <c r="B77" s="38"/>
-      <c r="C77" s="42"/>
-      <c r="D77" s="17"/>
-      <c r="E77" s="42"/>
-      <c r="F77" s="17"/>
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="38"/>
-      <c r="K77" s="27"/>
+      <c r="B77" s="36"/>
+      <c r="C77" s="40"/>
+      <c r="D77" s="16"/>
+      <c r="E77" s="40"/>
+      <c r="F77" s="16"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="38"/>
+      <c r="J77" s="36"/>
+      <c r="K77" s="25"/>
     </row>
     <row r="78" spans="1:11" ht="15.75">
-      <c r="A78" s="24">
+      <c r="A78" s="22">
         <v>70</v>
       </c>
-      <c r="B78" s="38"/>
-      <c r="C78" s="38"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="42"/>
-      <c r="F78" s="38"/>
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-      <c r="I78" s="40"/>
-      <c r="J78" s="38"/>
-      <c r="K78" s="27"/>
+      <c r="B78" s="36"/>
+      <c r="C78" s="36"/>
+      <c r="D78" s="16"/>
+      <c r="E78" s="40"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="38"/>
+      <c r="J78" s="36"/>
+      <c r="K78" s="25"/>
     </row>
     <row r="79" spans="1:11" ht="15.75">
-      <c r="A79" s="24">
+      <c r="A79" s="22">
         <v>71</v>
       </c>
-      <c r="B79" s="38"/>
-      <c r="C79" s="42"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="42"/>
-      <c r="F79" s="17"/>
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-      <c r="I79" s="40"/>
-      <c r="J79" s="38"/>
-      <c r="K79" s="27"/>
+      <c r="B79" s="36"/>
+      <c r="C79" s="40"/>
+      <c r="D79" s="16"/>
+      <c r="E79" s="40"/>
+      <c r="F79" s="16"/>
+      <c r="G79" s="36"/>
+      <c r="H79" s="36"/>
+      <c r="I79" s="38"/>
+      <c r="J79" s="36"/>
+      <c r="K79" s="25"/>
     </row>
     <row r="80" spans="1:11" ht="15.75">
-      <c r="A80" s="24">
+      <c r="A80" s="22">
         <v>72</v>
       </c>
-      <c r="B80" s="38"/>
-      <c r="C80" s="42"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="42"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="40"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="27"/>
+      <c r="B80" s="36"/>
+      <c r="C80" s="40"/>
+      <c r="D80" s="16"/>
+      <c r="E80" s="40"/>
+      <c r="F80" s="16"/>
+      <c r="G80" s="36"/>
+      <c r="H80" s="36"/>
+      <c r="I80" s="38"/>
+      <c r="J80" s="36"/>
+      <c r="K80" s="25"/>
     </row>
     <row r="81" spans="1:11" ht="15.75">
-      <c r="A81" s="24">
+      <c r="A81" s="22">
         <v>73</v>
       </c>
-      <c r="B81" s="38"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="42"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="40"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="27"/>
+      <c r="B81" s="36"/>
+      <c r="C81" s="40"/>
+      <c r="D81" s="16"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="36"/>
+      <c r="G81" s="36"/>
+      <c r="H81" s="36"/>
+      <c r="I81" s="38"/>
+      <c r="J81" s="36"/>
+      <c r="K81" s="25"/>
     </row>
     <row r="82" spans="1:11" ht="15.75">
-      <c r="A82" s="24">
-        <v>74</v>
-      </c>
-      <c r="B82" s="38"/>
-      <c r="C82" s="42"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="42"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="40"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="27"/>
+      <c r="A82" s="22">
+        <v>74</v>
+      </c>
+      <c r="B82" s="36"/>
+      <c r="C82" s="40"/>
+      <c r="D82" s="16"/>
+      <c r="E82" s="40"/>
+      <c r="F82" s="16"/>
+      <c r="G82" s="36"/>
+      <c r="H82" s="36"/>
+      <c r="I82" s="38"/>
+      <c r="J82" s="36"/>
+      <c r="K82" s="25"/>
     </row>
     <row r="83" spans="1:11" ht="15.75">
-      <c r="A83" s="24">
+      <c r="A83" s="22">
         <v>75</v>
       </c>
-      <c r="B83" s="38"/>
-      <c r="C83" s="42"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="42"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="40"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
+      <c r="B83" s="36"/>
+      <c r="C83" s="40"/>
+      <c r="D83" s="16"/>
+      <c r="E83" s="40"/>
+      <c r="F83" s="36"/>
+      <c r="G83" s="36"/>
+      <c r="H83" s="36"/>
+      <c r="I83" s="38"/>
+      <c r="J83" s="36"/>
+      <c r="K83" s="36"/>
     </row>
     <row r="84" spans="1:11" ht="15.75">
-      <c r="A84" s="24">
+      <c r="A84" s="22">
         <v>76</v>
       </c>
-      <c r="B84" s="38"/>
-      <c r="C84" s="42"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-      <c r="I84" s="40"/>
-      <c r="J84" s="38"/>
-      <c r="K84" s="38"/>
+      <c r="B84" s="36"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="16"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="16"/>
+      <c r="G84" s="36"/>
+      <c r="H84" s="36"/>
+      <c r="I84" s="38"/>
+      <c r="J84" s="36"/>
+      <c r="K84" s="36"/>
     </row>
     <row r="85" spans="1:11" ht="15.75">
-      <c r="A85" s="24">
+      <c r="A85" s="22">
         <v>77</v>
       </c>
-      <c r="B85" s="38"/>
-      <c r="C85" s="42"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="42"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-      <c r="I85" s="40"/>
-      <c r="J85" s="38"/>
-      <c r="K85" s="38"/>
+      <c r="B85" s="36"/>
+      <c r="C85" s="40"/>
+      <c r="D85" s="16"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="16"/>
+      <c r="G85" s="36"/>
+      <c r="H85" s="36"/>
+      <c r="I85" s="38"/>
+      <c r="J85" s="36"/>
+      <c r="K85" s="36"/>
     </row>
     <row r="86" spans="1:11" ht="15.75">
-      <c r="A86" s="24">
+      <c r="A86" s="22">
         <v>78</v>
       </c>
-      <c r="B86" s="38"/>
-      <c r="C86" s="42"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="42"/>
-      <c r="F86" s="38"/>
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-      <c r="I86" s="40"/>
-      <c r="J86" s="38"/>
-      <c r="K86" s="38"/>
+      <c r="B86" s="36"/>
+      <c r="C86" s="40"/>
+      <c r="D86" s="16"/>
+      <c r="E86" s="40"/>
+      <c r="F86" s="36"/>
+      <c r="G86" s="36"/>
+      <c r="H86" s="36"/>
+      <c r="I86" s="38"/>
+      <c r="J86" s="36"/>
+      <c r="K86" s="36"/>
     </row>
     <row r="87" spans="1:11" ht="15.75">
-      <c r="A87" s="24">
+      <c r="A87" s="22">
         <v>79</v>
       </c>
-      <c r="B87" s="38"/>
-      <c r="C87" s="38"/>
-      <c r="D87" s="17"/>
-      <c r="E87" s="42"/>
-      <c r="F87" s="17"/>
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-      <c r="I87" s="40"/>
-      <c r="J87" s="38"/>
-      <c r="K87" s="38"/>
+      <c r="B87" s="36"/>
+      <c r="C87" s="36"/>
+      <c r="D87" s="16"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="36"/>
+      <c r="H87" s="36"/>
+      <c r="I87" s="38"/>
+      <c r="J87" s="36"/>
+      <c r="K87" s="36"/>
     </row>
     <row r="88" spans="1:11" ht="15.75">
-      <c r="A88" s="24">
+      <c r="A88" s="22">
         <v>80</v>
       </c>
-      <c r="B88" s="38"/>
-      <c r="C88" s="42"/>
-      <c r="D88" s="42"/>
-      <c r="E88" s="17"/>
-      <c r="F88" s="38"/>
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-      <c r="I88" s="40"/>
-      <c r="J88" s="38"/>
-      <c r="K88" s="38"/>
+      <c r="B88" s="36"/>
+      <c r="C88" s="40"/>
+      <c r="D88" s="40"/>
+      <c r="E88" s="16"/>
+      <c r="F88" s="36"/>
+      <c r="G88" s="36"/>
+      <c r="H88" s="36"/>
+      <c r="I88" s="38"/>
+      <c r="J88" s="36"/>
+      <c r="K88" s="36"/>
     </row>
     <row r="89" spans="1:11" ht="15.75">
-      <c r="A89" s="24">
+      <c r="A89" s="22">
         <v>81</v>
       </c>
-      <c r="B89" s="38"/>
-      <c r="C89" s="42"/>
-      <c r="D89" s="42"/>
-      <c r="E89" s="17"/>
-      <c r="F89" s="17"/>
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-      <c r="I89" s="40"/>
-      <c r="J89" s="38"/>
-      <c r="K89" s="38"/>
+      <c r="B89" s="36"/>
+      <c r="C89" s="40"/>
+      <c r="D89" s="40"/>
+      <c r="E89" s="16"/>
+      <c r="F89" s="16"/>
+      <c r="G89" s="36"/>
+      <c r="H89" s="36"/>
+      <c r="I89" s="38"/>
+      <c r="J89" s="36"/>
+      <c r="K89" s="36"/>
     </row>
     <row r="90" spans="1:11" ht="15.75">
-      <c r="A90" s="24">
+      <c r="A90" s="22">
         <v>82</v>
       </c>
-      <c r="B90" s="38"/>
-      <c r="C90" s="42"/>
-      <c r="D90" s="42"/>
-      <c r="E90" s="34"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-      <c r="I90" s="40"/>
-      <c r="J90" s="38"/>
-      <c r="K90" s="38"/>
+      <c r="B90" s="36"/>
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="16"/>
+      <c r="G90" s="36"/>
+      <c r="H90" s="36"/>
+      <c r="I90" s="38"/>
+      <c r="J90" s="36"/>
+      <c r="K90" s="36"/>
     </row>
     <row r="91" spans="1:11" ht="15.75">
-      <c r="A91" s="24">
+      <c r="A91" s="22">
         <v>83</v>
       </c>
-      <c r="B91" s="38"/>
-      <c r="C91" s="42"/>
-      <c r="D91" s="42"/>
-      <c r="E91" s="38"/>
-      <c r="F91" s="38"/>
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-      <c r="I91" s="40"/>
-      <c r="J91" s="38"/>
-      <c r="K91" s="38"/>
+      <c r="B91" s="36"/>
+      <c r="C91" s="40"/>
+      <c r="D91" s="40"/>
+      <c r="E91" s="36"/>
+      <c r="F91" s="36"/>
+      <c r="G91" s="36"/>
+      <c r="H91" s="36"/>
+      <c r="I91" s="38"/>
+      <c r="J91" s="36"/>
+      <c r="K91" s="36"/>
     </row>
     <row r="92" spans="1:11" ht="15.75">
-      <c r="A92" s="24">
+      <c r="A92" s="22">
         <v>84</v>
       </c>
-      <c r="B92" s="38"/>
-      <c r="C92" s="42"/>
-      <c r="D92" s="42"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-      <c r="I92" s="40"/>
-      <c r="J92" s="38"/>
-      <c r="K92" s="38"/>
+      <c r="B92" s="36"/>
+      <c r="C92" s="40"/>
+      <c r="D92" s="40"/>
+      <c r="E92" s="33"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="36"/>
+      <c r="H92" s="36"/>
+      <c r="I92" s="38"/>
+      <c r="J92" s="36"/>
+      <c r="K92" s="36"/>
     </row>
     <row r="93" spans="1:11" ht="15.75">
-      <c r="A93" s="24">
+      <c r="A93" s="22">
         <v>85</v>
       </c>
-      <c r="B93" s="38"/>
-      <c r="C93" s="42"/>
-      <c r="D93" s="42"/>
-      <c r="E93" s="42"/>
-      <c r="F93" s="38"/>
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-      <c r="I93" s="40"/>
-      <c r="J93" s="38"/>
-      <c r="K93" s="38"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="40"/>
+      <c r="D93" s="40"/>
+      <c r="E93" s="40"/>
+      <c r="F93" s="36"/>
+      <c r="G93" s="36"/>
+      <c r="H93" s="36"/>
+      <c r="I93" s="38"/>
+      <c r="J93" s="36"/>
+      <c r="K93" s="36"/>
     </row>
     <row r="94" spans="1:11" ht="15.75">
-      <c r="A94" s="24">
+      <c r="A94" s="22">
         <v>86</v>
       </c>
-      <c r="B94" s="38"/>
-      <c r="C94" s="42"/>
-      <c r="D94" s="42"/>
-      <c r="E94" s="17"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-      <c r="I94" s="40"/>
-      <c r="J94" s="38"/>
-      <c r="K94" s="38"/>
+      <c r="B94" s="36"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="40"/>
+      <c r="E94" s="16"/>
+      <c r="F94" s="16"/>
+      <c r="G94" s="36"/>
+      <c r="H94" s="36"/>
+      <c r="I94" s="38"/>
+      <c r="J94" s="36"/>
+      <c r="K94" s="36"/>
     </row>
     <row r="95" spans="1:11" ht="15.75">
-      <c r="A95" s="24">
+      <c r="A95" s="22">
         <v>87</v>
       </c>
-      <c r="B95" s="38"/>
-      <c r="C95" s="42"/>
-      <c r="D95" s="42"/>
-      <c r="E95" s="17"/>
-      <c r="F95" s="17"/>
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-      <c r="I95" s="40"/>
-      <c r="J95" s="38"/>
-      <c r="K95" s="38"/>
+      <c r="B95" s="36"/>
+      <c r="C95" s="40"/>
+      <c r="D95" s="40"/>
+      <c r="E95" s="16"/>
+      <c r="F95" s="16"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="38"/>
+      <c r="J95" s="36"/>
+      <c r="K95" s="36"/>
     </row>
     <row r="96" spans="1:11" ht="15.75">
-      <c r="A96" s="24">
+      <c r="A96" s="22">
         <v>88</v>
       </c>
-      <c r="B96" s="38"/>
-      <c r="C96" s="38"/>
-      <c r="D96" s="38"/>
-      <c r="E96" s="17"/>
-      <c r="F96" s="38"/>
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-      <c r="I96" s="40"/>
-      <c r="J96" s="38"/>
-      <c r="K96" s="38"/>
+      <c r="B96" s="36"/>
+      <c r="C96" s="36"/>
+      <c r="D96" s="36"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="38"/>
+      <c r="J96" s="36"/>
+      <c r="K96" s="36"/>
     </row>
     <row r="97" spans="1:11" ht="15.75">
-      <c r="A97" s="24">
+      <c r="A97" s="22">
         <v>89</v>
       </c>
-      <c r="B97" s="38"/>
-      <c r="C97" s="17"/>
-      <c r="D97" s="38"/>
-      <c r="E97" s="17"/>
-      <c r="F97" s="17"/>
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-      <c r="I97" s="40"/>
-      <c r="J97" s="38"/>
-      <c r="K97" s="38"/>
+      <c r="B97" s="36"/>
+      <c r="C97" s="16"/>
+      <c r="D97" s="36"/>
+      <c r="E97" s="16"/>
+      <c r="F97" s="16"/>
+      <c r="G97" s="36"/>
+      <c r="H97" s="36"/>
+      <c r="I97" s="38"/>
+      <c r="J97" s="36"/>
+      <c r="K97" s="36"/>
     </row>
     <row r="98" spans="1:11" ht="15.75">
-      <c r="A98" s="24">
+      <c r="A98" s="22">
         <v>90</v>
       </c>
-      <c r="B98" s="38"/>
-      <c r="C98" s="17"/>
-      <c r="D98" s="38"/>
-      <c r="E98" s="17"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-      <c r="I98" s="40"/>
-      <c r="J98" s="38"/>
-      <c r="K98" s="38"/>
+      <c r="B98" s="36"/>
+      <c r="C98" s="16"/>
+      <c r="D98" s="36"/>
+      <c r="E98" s="16"/>
+      <c r="F98" s="16"/>
+      <c r="G98" s="36"/>
+      <c r="H98" s="36"/>
+      <c r="I98" s="38"/>
+      <c r="J98" s="36"/>
+      <c r="K98" s="36"/>
     </row>
     <row r="99" spans="1:11" ht="15.75">
-      <c r="A99" s="24">
+      <c r="A99" s="22">
         <v>91</v>
       </c>
-      <c r="B99" s="38"/>
-      <c r="C99" s="17"/>
-      <c r="D99" s="38"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="38"/>
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-      <c r="I99" s="40"/>
-      <c r="J99" s="38"/>
-      <c r="K99" s="38"/>
+      <c r="B99" s="36"/>
+      <c r="C99" s="16"/>
+      <c r="D99" s="36"/>
+      <c r="E99" s="16"/>
+      <c r="F99" s="36"/>
+      <c r="G99" s="36"/>
+      <c r="H99" s="36"/>
+      <c r="I99" s="38"/>
+      <c r="J99" s="36"/>
+      <c r="K99" s="36"/>
     </row>
     <row r="100" spans="1:11" ht="15.75">
-      <c r="A100" s="24">
+      <c r="A100" s="22">
         <v>92</v>
       </c>
-      <c r="B100" s="38"/>
-      <c r="C100" s="17"/>
-      <c r="D100" s="38"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-      <c r="I100" s="40"/>
-      <c r="J100" s="38"/>
-      <c r="K100" s="38"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="16"/>
+      <c r="D100" s="36"/>
+      <c r="E100" s="16"/>
+      <c r="F100" s="16"/>
+      <c r="G100" s="36"/>
+      <c r="H100" s="36"/>
+      <c r="I100" s="38"/>
+      <c r="J100" s="36"/>
+      <c r="K100" s="36"/>
     </row>
     <row r="101" spans="1:11" ht="15.75">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
-      <c r="C101" s="17"/>
+      <c r="C101" s="16"/>
       <c r="D101" s="7"/>
-      <c r="E101" s="17"/>
-      <c r="F101" s="38"/>
+      <c r="E101" s="16"/>
+      <c r="F101" s="36"/>
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
       <c r="I101" s="10"/>
@@ -2867,10 +2866,10 @@
     <row r="102" spans="1:11" ht="15.75">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
-      <c r="C102" s="17"/>
+      <c r="C102" s="16"/>
       <c r="D102" s="7"/>
-      <c r="E102" s="17"/>
-      <c r="F102" s="17"/>
+      <c r="E102" s="16"/>
+      <c r="F102" s="16"/>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
       <c r="I102" s="10"/>
@@ -2882,8 +2881,8 @@
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
-      <c r="E103" s="17"/>
-      <c r="F103" s="17"/>
+      <c r="E103" s="16"/>
+      <c r="F103" s="16"/>
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
       <c r="I103" s="10"/>
@@ -2895,8 +2894,8 @@
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
-      <c r="E104" s="17"/>
-      <c r="F104" s="38"/>
+      <c r="E104" s="16"/>
+      <c r="F104" s="36"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
       <c r="I104" s="10"/>
@@ -2908,8 +2907,8 @@
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
-      <c r="E105" s="17"/>
-      <c r="F105" s="17"/>
+      <c r="E105" s="16"/>
+      <c r="F105" s="16"/>
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
       <c r="I105" s="10"/>
@@ -2921,8 +2920,8 @@
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
-      <c r="E106" s="17"/>
-      <c r="F106" s="38"/>
+      <c r="E106" s="16"/>
+      <c r="F106" s="36"/>
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
       <c r="I106" s="10"/>
@@ -2934,8 +2933,8 @@
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
-      <c r="E107" s="17"/>
-      <c r="F107" s="17"/>
+      <c r="E107" s="16"/>
+      <c r="F107" s="16"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
       <c r="I107" s="10"/>
@@ -2947,8 +2946,8 @@
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="7"/>
-      <c r="E108" s="17"/>
-      <c r="F108" s="17"/>
+      <c r="E108" s="16"/>
+      <c r="F108" s="16"/>
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
       <c r="I108" s="10"/>
@@ -2960,8 +2959,8 @@
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
-      <c r="E109" s="17"/>
-      <c r="F109" s="38"/>
+      <c r="E109" s="16"/>
+      <c r="F109" s="36"/>
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
       <c r="I109" s="10"/>
@@ -2973,8 +2972,8 @@
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
-      <c r="E110" s="35"/>
-      <c r="F110" s="17"/>
+      <c r="E110" s="33"/>
+      <c r="F110" s="16"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
       <c r="I110" s="10"/>
@@ -2986,8 +2985,8 @@
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
-      <c r="E111" s="35"/>
-      <c r="F111" s="38"/>
+      <c r="E111" s="33"/>
+      <c r="F111" s="36"/>
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
       <c r="I111" s="10"/>

--- a/wiki/plan/Daily Tasksheet.xlsx
+++ b/wiki/plan/Daily Tasksheet.xlsx
@@ -309,16 +309,16 @@
     <t>Coding</t>
   </si>
   <si>
-    <t>Trips, routes, stations, coaches management</t>
-  </si>
-  <si>
-    <t>Users, staffs management</t>
-  </si>
-  <si>
-    <t>Scheduling, assigning management</t>
-  </si>
-  <si>
     <t>Requests, packages, comments and rating management</t>
+  </si>
+  <si>
+    <t>Coaches, coache types, volume management</t>
+  </si>
+  <si>
+    <t>Trips, routes, stations management</t>
+  </si>
+  <si>
+    <t>Scheduling, assigning, staffs management</t>
   </si>
 </sst>
 </file>
@@ -920,8 +920,8 @@
   <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD66"/>
+      <pane ySplit="12" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2363,7 +2363,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C69" s="36"/>
       <c r="D69" s="16" t="s">
@@ -2382,7 +2382,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C70" s="40" t="s">
         <v>2</v>
@@ -2401,7 +2401,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="39" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C71" s="40"/>
       <c r="D71" s="16"/>

--- a/wiki/plan/Daily Tasksheet.xlsx
+++ b/wiki/plan/Daily Tasksheet.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
   <si>
     <t>No.</t>
   </si>
@@ -328,6 +328,9 @@
   </si>
   <si>
     <t>Admin functions: Staffs management, Fee management</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online payment (bạn anh LỮ) </t>
   </si>
 </sst>
 </file>
@@ -892,7 +895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G72" sqref="G72"/>
+      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2353,9 +2356,13 @@
       <c r="A79" s="24">
         <v>76</v>
       </c>
-      <c r="B79" s="18"/>
+      <c r="B79" s="20" t="s">
+        <v>84</v>
+      </c>
       <c r="C79" s="21"/>
-      <c r="D79" s="10"/>
+      <c r="D79" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E79" s="21"/>
       <c r="F79" s="18"/>
       <c r="G79" s="33"/>

--- a/wiki/plan/Daily Tasksheet.xlsx
+++ b/wiki/plan/Daily Tasksheet.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
   <si>
     <t>No.</t>
   </si>
@@ -895,7 +895,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B81" sqref="B81"/>
+      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2232,7 +2232,9 @@
       </c>
       <c r="F71" s="17"/>
       <c r="G71" s="33"/>
-      <c r="H71" s="25"/>
+      <c r="H71" s="25" t="s">
+        <v>2</v>
+      </c>
       <c r="I71" s="18"/>
     </row>
     <row r="72" spans="1:9" ht="15.75">
@@ -2244,7 +2246,9 @@
       </c>
       <c r="C72" s="18"/>
       <c r="D72" s="18"/>
-      <c r="E72" s="18"/>
+      <c r="E72" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="F72" s="18"/>
       <c r="G72" s="33"/>
       <c r="H72" s="25" t="s">
@@ -2261,7 +2265,9 @@
       </c>
       <c r="C73" s="18"/>
       <c r="D73" s="18"/>
-      <c r="E73" s="18"/>
+      <c r="E73" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="F73" s="18"/>
       <c r="G73" s="33"/>
       <c r="H73" s="25" t="s">
@@ -2278,10 +2284,14 @@
       </c>
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
-      <c r="E74" s="18"/>
+      <c r="E74" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="F74" s="18"/>
       <c r="G74" s="33"/>
-      <c r="H74" s="25"/>
+      <c r="H74" s="25" t="s">
+        <v>2</v>
+      </c>
       <c r="I74" s="18"/>
     </row>
     <row r="75" spans="1:9" ht="15.75">
@@ -2346,7 +2356,9 @@
       </c>
       <c r="C78" s="21"/>
       <c r="D78" s="10"/>
-      <c r="E78" s="21"/>
+      <c r="E78" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="F78" s="10"/>
       <c r="G78" s="33"/>
       <c r="H78" s="25"/>
@@ -2788,7 +2800,7 @@
     <mergeCell ref="A8:A12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F92:F93 E23:E41 C86:D93 E90:E109 D2:E22 E44:E66 F85 F90 F95:F96 F98 F100:F101 F105:F106 F103 F108 F80 C2:C67 C95:C100 D76:D85 F82:F83 F87:F88 C70:E71 E68 D23:D69 E76:E87 C76:C84 F2:F71 H2:H119 F75:F78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F92:F93 E23:E41 C86:D93 E90:E109 D2:E22 E44:E66 F85 F90 F95:F96 F98 F100:F101 F105:F106 F103 F108 F80 C2:C67 C95:C100 D76:D85 F82:F83 F87:F88 C70:E71 E68 D23:D69 E76:E87 C76:C84 F2:F71 H2:H119 F75:F78 E72:E74">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/wiki/plan/Daily Tasksheet.xlsx
+++ b/wiki/plan/Daily Tasksheet.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="86">
   <si>
     <t>No.</t>
   </si>
@@ -318,12 +318,6 @@
     <t>Searching: location(station, route), customers</t>
   </si>
   <si>
-    <t>Requests</t>
-  </si>
-  <si>
-    <t>Packages</t>
-  </si>
-  <si>
     <t>Admin functions: Schedule management</t>
   </si>
   <si>
@@ -331,6 +325,15 @@
   </si>
   <si>
     <t xml:space="preserve">Online payment (bạn anh LỮ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return </t>
+  </si>
+  <si>
+    <t>Post, manage</t>
+  </si>
+  <si>
+    <t>Manage request status (role Staff)</t>
   </si>
 </sst>
 </file>
@@ -450,7 +453,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -486,12 +489,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -588,6 +602,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -895,7 +912,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H71" sqref="H71"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77:H77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2187,7 +2204,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C69" s="18"/>
       <c r="D69" s="27" t="s">
@@ -2227,9 +2244,7 @@
       </c>
       <c r="C71" s="27"/>
       <c r="D71" s="27"/>
-      <c r="E71" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="E71" s="27"/>
       <c r="F71" s="17"/>
       <c r="G71" s="33"/>
       <c r="H71" s="25" t="s">
@@ -2242,9 +2257,9 @@
         <v>66</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="C72" s="18"/>
+        <v>84</v>
+      </c>
+      <c r="C72" s="27"/>
       <c r="D72" s="18"/>
       <c r="E72" s="27" t="s">
         <v>2</v>
@@ -2261,9 +2276,9 @@
         <v>67</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="C73" s="18"/>
+        <v>40</v>
+      </c>
+      <c r="C73" s="27"/>
       <c r="D73" s="18"/>
       <c r="E73" s="27" t="s">
         <v>2</v>
@@ -2279,14 +2294,14 @@
       <c r="A74" s="24">
         <v>68</v>
       </c>
-      <c r="B74" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C74" s="18"/>
+      <c r="B74" s="37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C74" s="27" t="s">
+        <v>2</v>
+      </c>
       <c r="D74" s="18"/>
-      <c r="E74" s="27" t="s">
-        <v>2</v>
-      </c>
+      <c r="E74" s="27"/>
       <c r="F74" s="18"/>
       <c r="G74" s="33"/>
       <c r="H74" s="25" t="s">
@@ -2301,14 +2316,16 @@
       <c r="B75" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="C75" s="18"/>
+      <c r="C75" s="27"/>
       <c r="D75" s="18"/>
       <c r="E75" s="18"/>
       <c r="F75" s="17" t="s">
         <v>2</v>
       </c>
       <c r="G75" s="33"/>
-      <c r="H75" s="25"/>
+      <c r="H75" s="25" t="s">
+        <v>2</v>
+      </c>
       <c r="I75" s="18"/>
     </row>
     <row r="76" spans="1:9" ht="15.75">
@@ -2316,7 +2333,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="20" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C76" s="27" t="s">
         <v>2</v>
@@ -2361,7 +2378,9 @@
       </c>
       <c r="F78" s="10"/>
       <c r="G78" s="33"/>
-      <c r="H78" s="25"/>
+      <c r="H78" s="25" t="s">
+        <v>2</v>
+      </c>
       <c r="I78" s="18"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
@@ -2369,7 +2388,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C79" s="21"/>
       <c r="D79" s="10" t="s">
@@ -2378,20 +2397,28 @@
       <c r="E79" s="21"/>
       <c r="F79" s="18"/>
       <c r="G79" s="33"/>
-      <c r="H79" s="25"/>
+      <c r="H79" s="25" t="s">
+        <v>2</v>
+      </c>
       <c r="I79" s="18"/>
     </row>
     <row r="80" spans="1:9" ht="15.75">
       <c r="A80" s="24">
         <v>77</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="21"/>
+      <c r="B80" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D80" s="10"/>
       <c r="E80" s="21"/>
       <c r="F80" s="10"/>
       <c r="G80" s="33"/>
-      <c r="H80" s="25"/>
+      <c r="H80" s="25" t="s">
+        <v>2</v>
+      </c>
       <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
@@ -2800,7 +2827,7 @@
     <mergeCell ref="A8:A12"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F92:F93 E23:E41 C86:D93 E90:E109 D2:E22 E44:E66 F85 F90 F95:F96 F98 F100:F101 F105:F106 F103 F108 F80 C2:C67 C95:C100 D76:D85 F82:F83 F87:F88 C70:E71 E68 D23:D69 E76:E87 C76:C84 F2:F71 H2:H119 F75:F78 E72:E74">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F92:F93 E23:E41 C86:D93 E90:E109 D2:E22 E44:E66 F85 F90 F95:F96 F98 F100:F101 F105:F106 F103 F108 F80 C2:C67 C95:C100 D76:D85 F82:F83 F87:F88 C70:E71 E68 D23:D69 E76:E87 F2:F71 H2:H119 F75:F78 E72:E74 C72:C84">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/wiki/plan/Daily Tasksheet.xlsx
+++ b/wiki/plan/Daily Tasksheet.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="90">
   <si>
     <t>No.</t>
   </si>
@@ -324,9 +324,6 @@
     <t>Admin functions: Staffs management, Fee management</t>
   </si>
   <si>
-    <t xml:space="preserve">Online payment (bạn anh LỮ) </t>
-  </si>
-  <si>
     <t xml:space="preserve">Return </t>
   </si>
   <si>
@@ -334,6 +331,21 @@
   </si>
   <si>
     <t>Manage request status (role Staff)</t>
+  </si>
+  <si>
+    <t>Trip management: manage departure &amp; arrival time</t>
+  </si>
+  <si>
+    <t>Invoice: export &amp; print</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Online payment </t>
+  </si>
+  <si>
+    <t>Late payment</t>
+  </si>
+  <si>
+    <t>Assign</t>
   </si>
 </sst>
 </file>
@@ -505,7 +517,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
@@ -600,11 +612,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -911,8 +934,8 @@
   <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane ySplit="12" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77:H77"/>
+      <pane ySplit="12" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G84" sqref="G84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -957,7 +980,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A2" s="36">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
@@ -974,7 +997,7 @@
       <c r="I2" s="12"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A3" s="36"/>
+      <c r="A3" s="37"/>
       <c r="B3" s="11" t="s">
         <v>11</v>
       </c>
@@ -989,7 +1012,7 @@
       <c r="I3" s="12"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A4" s="36"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="11" t="s">
         <v>12</v>
       </c>
@@ -1004,7 +1027,7 @@
       <c r="I4" s="12"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A5" s="36"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
@@ -1021,7 +1044,7 @@
       <c r="I5" s="12"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A6" s="36"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="11" t="s">
         <v>6</v>
       </c>
@@ -1034,7 +1057,7 @@
       <c r="I6" s="12"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A7" s="36"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="11" t="s">
         <v>7</v>
       </c>
@@ -1047,7 +1070,7 @@
       <c r="I7" s="12"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A8" s="36">
+      <c r="A8" s="37">
         <v>2</v>
       </c>
       <c r="B8" s="11" t="s">
@@ -1062,7 +1085,7 @@
       <c r="I8" s="12"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A9" s="36"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="11" t="s">
         <v>4</v>
       </c>
@@ -1075,7 +1098,7 @@
       <c r="I9" s="12"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A10" s="36"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="11" t="s">
         <v>5</v>
       </c>
@@ -1088,7 +1111,7 @@
       <c r="I10" s="12"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A11" s="36"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="11" t="s">
         <v>9</v>
       </c>
@@ -1101,7 +1124,7 @@
       <c r="I11" s="12"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" hidden="1" customHeight="1">
-      <c r="A12" s="36"/>
+      <c r="A12" s="37"/>
       <c r="B12" s="11" t="s">
         <v>8</v>
       </c>
@@ -2257,7 +2280,7 @@
         <v>66</v>
       </c>
       <c r="B72" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C72" s="27"/>
       <c r="D72" s="18"/>
@@ -2294,8 +2317,8 @@
       <c r="A74" s="24">
         <v>68</v>
       </c>
-      <c r="B74" s="37" t="s">
-        <v>83</v>
+      <c r="B74" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="C74" s="27" t="s">
         <v>2</v>
@@ -2388,7 +2411,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="20" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C79" s="21"/>
       <c r="D79" s="10" t="s">
@@ -2407,7 +2430,7 @@
         <v>77</v>
       </c>
       <c r="B80" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C80" s="21" t="s">
         <v>2</v>
@@ -2422,24 +2445,28 @@
       <c r="I80" s="18"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="24">
-        <v>78</v>
-      </c>
-      <c r="B81" s="18"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="10"/>
-      <c r="E81" s="21"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="33"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="39">
+        <v>41722</v>
+      </c>
+      <c r="C81" s="40"/>
+      <c r="D81" s="40"/>
+      <c r="E81" s="40"/>
+      <c r="F81" s="41"/>
+      <c r="G81" s="42"/>
       <c r="H81" s="25"/>
-      <c r="I81" s="18"/>
+      <c r="I81" s="41"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
       <c r="A82" s="24">
-        <v>79</v>
-      </c>
-      <c r="B82" s="18"/>
-      <c r="C82" s="21"/>
+        <v>78</v>
+      </c>
+      <c r="B82" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="D82" s="10"/>
       <c r="E82" s="21"/>
       <c r="F82" s="10"/>
@@ -2449,24 +2476,34 @@
     </row>
     <row r="83" spans="1:9" ht="15.75">
       <c r="A83" s="24">
-        <v>80</v>
-      </c>
-      <c r="B83" s="18"/>
+        <v>79</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>86</v>
+      </c>
       <c r="C83" s="21"/>
       <c r="D83" s="10"/>
       <c r="E83" s="21"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="33"/>
+      <c r="F83" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G83" s="33">
+        <v>41724</v>
+      </c>
       <c r="H83" s="25"/>
       <c r="I83" s="18"/>
     </row>
     <row r="84" spans="1:9" ht="15.75">
       <c r="A84" s="24">
-        <v>81</v>
-      </c>
-      <c r="B84" s="18"/>
+        <v>80</v>
+      </c>
+      <c r="B84" s="20" t="s">
+        <v>88</v>
+      </c>
       <c r="C84" s="21"/>
-      <c r="D84" s="10"/>
+      <c r="D84" s="10" t="s">
+        <v>2</v>
+      </c>
       <c r="E84" s="21"/>
       <c r="F84" s="18"/>
       <c r="G84" s="33"/>
@@ -2475,12 +2512,16 @@
     </row>
     <row r="85" spans="1:9" ht="15.75">
       <c r="A85" s="24">
-        <v>82</v>
-      </c>
-      <c r="B85" s="18"/>
+        <v>81</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C85" s="18"/>
       <c r="D85" s="10"/>
-      <c r="E85" s="21"/>
+      <c r="E85" s="21" t="s">
+        <v>2</v>
+      </c>
       <c r="F85" s="10"/>
       <c r="G85" s="33"/>
       <c r="H85" s="25"/>
@@ -2488,7 +2529,7 @@
     </row>
     <row r="86" spans="1:9" ht="15.75">
       <c r="A86" s="24">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B86" s="18"/>
       <c r="C86" s="21"/>
@@ -2501,7 +2542,7 @@
     </row>
     <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="24">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B87" s="18"/>
       <c r="C87" s="21"/>
@@ -2514,7 +2555,7 @@
     </row>
     <row r="88" spans="1:9" ht="15.75">
       <c r="A88" s="24">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B88" s="18"/>
       <c r="C88" s="21"/>
@@ -2527,7 +2568,7 @@
     </row>
     <row r="89" spans="1:9" ht="15.75">
       <c r="A89" s="24">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B89" s="18"/>
       <c r="C89" s="21"/>
@@ -2540,7 +2581,7 @@
     </row>
     <row r="90" spans="1:9" ht="15.75">
       <c r="A90" s="24">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B90" s="18"/>
       <c r="C90" s="21"/>
@@ -2553,7 +2594,7 @@
     </row>
     <row r="91" spans="1:9" ht="15.75">
       <c r="A91" s="24">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B91" s="18"/>
       <c r="C91" s="21"/>
@@ -2566,7 +2607,7 @@
     </row>
     <row r="92" spans="1:9" ht="15.75">
       <c r="A92" s="24">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B92" s="18"/>
       <c r="C92" s="21"/>
@@ -2579,7 +2620,7 @@
     </row>
     <row r="93" spans="1:9" ht="15.75">
       <c r="A93" s="24">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93" s="18"/>
       <c r="C93" s="21"/>
@@ -2592,7 +2633,7 @@
     </row>
     <row r="94" spans="1:9" ht="15.75">
       <c r="A94" s="24">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B94" s="18"/>
       <c r="C94" s="18"/>
@@ -2605,7 +2646,7 @@
     </row>
     <row r="95" spans="1:9" ht="15.75">
       <c r="A95" s="24">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B95" s="18"/>
       <c r="C95" s="10"/>
@@ -2617,7 +2658,9 @@
       <c r="I95" s="18"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="6"/>
+      <c r="A96" s="24">
+        <v>92</v>
+      </c>
       <c r="B96" s="18"/>
       <c r="C96" s="10"/>
       <c r="D96" s="18"/>
